--- a/Assets/06.Table/HaetalTable.xlsx
+++ b/Assets/06.Table/HaetalTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E10DFD3-3BA7-4A84-AC7C-B627D76641A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FD92AF-54B8-41D3-8507-A48F05A532DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -574,11 +574,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -656,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f t="shared" ref="B4:B21" si="0">B3</f>
+        <f t="shared" ref="B4:B25" si="0">B3</f>
         <v>1-1</v>
       </c>
       <c r="C4">
@@ -915,7 +915,7 @@
         <v>122</v>
       </c>
       <c r="D16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>1500</v>
@@ -936,7 +936,7 @@
         <v>122</v>
       </c>
       <c r="D17">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="E17">
         <v>1600</v>
@@ -957,7 +957,7 @@
         <v>122</v>
       </c>
       <c r="D18">
-        <v>0.85</v>
+        <v>1.5</v>
       </c>
       <c r="E18">
         <v>1700</v>
@@ -978,7 +978,7 @@
         <v>122</v>
       </c>
       <c r="D19">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>1800</v>
@@ -999,7 +999,7 @@
         <v>122</v>
       </c>
       <c r="D20">
-        <v>0.95</v>
+        <v>2.5</v>
       </c>
       <c r="E20">
         <v>1900</v>
@@ -1020,7 +1020,7 @@
         <v>122</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <v>2000</v>
@@ -1029,9 +1029,93 @@
         <v>26</v>
       </c>
     </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1</v>
+      </c>
+      <c r="C22">
+        <v>122</v>
+      </c>
+      <c r="D22">
+        <v>3.5</v>
+      </c>
+      <c r="E22">
+        <v>2100</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1</v>
+      </c>
+      <c r="C23">
+        <v>122</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>2200</v>
+      </c>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1</v>
+      </c>
+      <c r="C24">
+        <v>122</v>
+      </c>
+      <c r="D24">
+        <v>4.8</v>
+      </c>
+      <c r="E24">
+        <v>2300</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1</v>
+      </c>
+      <c r="C25">
+        <v>122</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>2400</v>
+      </c>
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:F21">
+  <conditionalFormatting sqref="A2:F25">
     <cfRule type="expression" dxfId="1" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -1046,7 +1130,7 @@
   <dimension ref="G3:J33"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="H4" sqref="H4:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1300,15 +1384,15 @@
         <v>21</v>
       </c>
       <c r="H18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
-        <v>14.285714285714286</v>
+        <v>19.047619047619047</v>
       </c>
     </row>
     <row r="19" spans="7:10" x14ac:dyDescent="0.3">
@@ -1316,15 +1400,15 @@
         <v>22</v>
       </c>
       <c r="H19">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>6.8</v>
+        <v>7.45</v>
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>13.33333333333333</v>
+        <v>19.200000000000003</v>
       </c>
     </row>
     <row r="20" spans="7:10" x14ac:dyDescent="0.3">
@@ -1332,15 +1416,15 @@
         <v>23</v>
       </c>
       <c r="H20">
-        <v>0.85</v>
+        <v>1.5</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>7.6499999999999995</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>12.499999999999996</v>
+        <v>20.134228187919451</v>
       </c>
     </row>
     <row r="21" spans="7:10" x14ac:dyDescent="0.3">
@@ -1348,15 +1432,15 @@
         <v>24</v>
       </c>
       <c r="H21">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>8.5499999999999989</v>
+        <v>10.95</v>
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
-        <v>11.764705882352935</v>
+        <v>22.346368715083802</v>
       </c>
     </row>
     <row r="22" spans="7:10" x14ac:dyDescent="0.3">
@@ -1364,15 +1448,15 @@
         <v>25</v>
       </c>
       <c r="H22">
-        <v>0.95</v>
+        <v>2.5</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>9.4999999999999982</v>
+        <v>13.45</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>11.111111111111104</v>
+        <v>22.831050228310502</v>
       </c>
     </row>
     <row r="23" spans="7:10" x14ac:dyDescent="0.3">
@@ -1380,15 +1464,15 @@
         <v>26</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>10.499999999999998</v>
+        <v>16.45</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>10.526315789473687</v>
+        <v>22.304832713754649</v>
       </c>
     </row>
     <row r="24" spans="7:10" x14ac:dyDescent="0.3">
@@ -1396,15 +1480,15 @@
         <v>28</v>
       </c>
       <c r="H24">
-        <v>1.1000000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>11.599999999999998</v>
+        <v>19.95</v>
       </c>
       <c r="J24">
         <f t="shared" si="1"/>
-        <v>10.476190476190474</v>
+        <v>21.276595744680851</v>
       </c>
     </row>
     <row r="25" spans="7:10" x14ac:dyDescent="0.3">
@@ -1412,15 +1496,15 @@
         <v>29</v>
       </c>
       <c r="H25">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>12.799999999999997</v>
+        <v>23.95</v>
       </c>
       <c r="J25">
         <f t="shared" si="1"/>
-        <v>10.344827586206891</v>
+        <v>20.05012531328321</v>
       </c>
     </row>
     <row r="26" spans="7:10" x14ac:dyDescent="0.3">
@@ -1428,15 +1512,15 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>14.099999999999998</v>
+        <v>28.75</v>
       </c>
       <c r="J26">
         <f t="shared" si="1"/>
-        <v>10.156250000000007</v>
+        <v>20.04175365344468</v>
       </c>
     </row>
     <row r="27" spans="7:10" x14ac:dyDescent="0.3">
@@ -1444,15 +1528,15 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>15.499999999999998</v>
+        <v>34.75</v>
       </c>
       <c r="J27">
         <f t="shared" si="1"/>
-        <v>9.9290780141843999</v>
+        <v>20.869565217391305</v>
       </c>
     </row>
     <row r="28" spans="7:10" x14ac:dyDescent="0.3">
@@ -1460,15 +1544,15 @@
         <v>32</v>
       </c>
       <c r="H28">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>41.75</v>
       </c>
       <c r="J28">
         <f t="shared" si="1"/>
-        <v>9.6774193548387224</v>
+        <v>20.14388489208633</v>
       </c>
     </row>
     <row r="29" spans="7:10" x14ac:dyDescent="0.3">
@@ -1476,15 +1560,15 @@
         <v>33</v>
       </c>
       <c r="H29">
-        <v>1.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>18.600000000000001</v>
+        <v>50.55</v>
       </c>
       <c r="J29">
         <f t="shared" si="1"/>
-        <v>9.4117647058823621</v>
+        <v>21.077844311377241</v>
       </c>
     </row>
     <row r="30" spans="7:10" x14ac:dyDescent="0.3">
@@ -1492,15 +1576,15 @@
         <v>34</v>
       </c>
       <c r="H30">
-        <v>1.7</v>
+        <v>11.2</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>20.3</v>
+        <v>61.75</v>
       </c>
       <c r="J30">
         <f t="shared" si="1"/>
-        <v>9.1397849462365546</v>
+        <v>22.156280909990116</v>
       </c>
     </row>
     <row r="31" spans="7:10" x14ac:dyDescent="0.3">
@@ -1508,15 +1592,15 @@
         <v>35</v>
       </c>
       <c r="H31">
-        <v>1.8</v>
+        <v>13</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>22.1</v>
+        <v>74.75</v>
       </c>
       <c r="J31">
         <f t="shared" si="1"/>
-        <v>8.8669950738916281</v>
+        <v>21.05263157894737</v>
       </c>
     </row>
     <row r="32" spans="7:10" x14ac:dyDescent="0.3">
@@ -1524,15 +1608,15 @@
         <v>36</v>
       </c>
       <c r="H32">
-        <v>1.9</v>
+        <v>15</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>89.75</v>
       </c>
       <c r="J32">
         <f t="shared" si="1"/>
-        <v>8.5972850678732957</v>
+        <v>20.066889632107024</v>
       </c>
     </row>
     <row r="33" spans="7:10" x14ac:dyDescent="0.3">
@@ -1540,15 +1624,15 @@
         <v>37</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>107.75</v>
       </c>
       <c r="J33">
         <f t="shared" si="1"/>
-        <v>8.3333333333333339</v>
+        <v>20.055710306406684</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/HaetalTable.xlsx
+++ b/Assets/06.Table/HaetalTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FD92AF-54B8-41D3-8507-A48F05A532DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C67935E-98E4-467E-8038-751EA1929A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="HaetalTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -574,11 +574,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -656,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f t="shared" ref="B4:B25" si="0">B3</f>
+        <f t="shared" ref="B4:B34" si="0">B3</f>
         <v>1-1</v>
       </c>
       <c r="C4">
@@ -1113,10 +1113,115 @@
         <v>31</v>
       </c>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1</v>
+      </c>
+      <c r="C26">
+        <v>122</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>2500</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1</v>
+      </c>
+      <c r="C27">
+        <v>122</v>
+      </c>
+      <c r="D27">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E27">
+        <v>2600</v>
+      </c>
+      <c r="F27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1</v>
+      </c>
+      <c r="C28">
+        <v>122</v>
+      </c>
+      <c r="D28">
+        <v>11.2</v>
+      </c>
+      <c r="E28">
+        <v>2700</v>
+      </c>
+      <c r="F28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1</v>
+      </c>
+      <c r="C29">
+        <v>122</v>
+      </c>
+      <c r="D29">
+        <v>13</v>
+      </c>
+      <c r="E29">
+        <v>2800</v>
+      </c>
+      <c r="F29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1</v>
+      </c>
+      <c r="C30">
+        <v>122</v>
+      </c>
+      <c r="D30">
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>2900</v>
+      </c>
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:F25">
-    <cfRule type="expression" dxfId="1" priority="50">
+  <conditionalFormatting sqref="A2:F30">
+    <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1129,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE3B724-3833-49AB-8819-9900E636245E}">
   <dimension ref="G3:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1638,7 +1743,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G4:J33">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$C4=5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/06.Table/HaetalTable.xlsx
+++ b/Assets/06.Table/HaetalTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C67935E-98E4-467E-8038-751EA1929A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96ECB5DC-7DDE-4BB1-8057-4B3228F441D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,21 @@
   <si>
     <t>누적 수치</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해탈 31단계</t>
+  </si>
+  <si>
+    <t>해탈 32단계</t>
+  </si>
+  <si>
+    <t>해탈 33단계</t>
+  </si>
+  <si>
+    <t>해탈 34단계</t>
+  </si>
+  <si>
+    <t>해탈 35단계</t>
   </si>
 </sst>
 </file>
@@ -574,11 +589,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -656,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f t="shared" ref="B4:B34" si="0">B3</f>
+        <f t="shared" ref="B4:B36" si="0">B3</f>
         <v>1-1</v>
       </c>
       <c r="C4">
@@ -1218,10 +1233,136 @@
         <v>36</v>
       </c>
     </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1</v>
+      </c>
+      <c r="C31">
+        <v>122</v>
+      </c>
+      <c r="D31">
+        <v>18</v>
+      </c>
+      <c r="E31">
+        <v>3000</v>
+      </c>
+      <c r="F31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1</v>
+      </c>
+      <c r="C32">
+        <v>122</v>
+      </c>
+      <c r="D32">
+        <v>21</v>
+      </c>
+      <c r="E32">
+        <v>3100</v>
+      </c>
+      <c r="F32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1</v>
+      </c>
+      <c r="C33">
+        <v>122</v>
+      </c>
+      <c r="D33">
+        <v>24</v>
+      </c>
+      <c r="E33">
+        <v>3200</v>
+      </c>
+      <c r="F33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1</v>
+      </c>
+      <c r="C34">
+        <v>122</v>
+      </c>
+      <c r="D34">
+        <v>27</v>
+      </c>
+      <c r="E34">
+        <v>3300</v>
+      </c>
+      <c r="F34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1</v>
+      </c>
+      <c r="C35">
+        <v>122</v>
+      </c>
+      <c r="D35">
+        <v>30</v>
+      </c>
+      <c r="E35">
+        <v>3400</v>
+      </c>
+      <c r="F35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1</v>
+      </c>
+      <c r="C36">
+        <v>122</v>
+      </c>
+      <c r="D36">
+        <v>33</v>
+      </c>
+      <c r="E36">
+        <v>3500</v>
+      </c>
+      <c r="F36" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:F30">
-    <cfRule type="expression" dxfId="0" priority="50">
+  <conditionalFormatting sqref="A2:F36">
+    <cfRule type="expression" dxfId="1" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1234,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE3B724-3833-49AB-8819-9900E636245E}">
   <dimension ref="G3:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1743,7 +1884,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G4:J33">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$C4=5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/06.Table/HaetalTable.xlsx
+++ b/Assets/06.Table/HaetalTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96ECB5DC-7DDE-4BB1-8057-4B3228F441D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724988F5-1F5E-4E55-8E29-1036BC9AB314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +178,21 @@
   </si>
   <si>
     <t>해탈 35단계</t>
+  </si>
+  <si>
+    <t>해탈 36단계</t>
+  </si>
+  <si>
+    <t>해탈 37단계</t>
+  </si>
+  <si>
+    <t>해탈 38단계</t>
+  </si>
+  <si>
+    <t>해탈 39단계</t>
+  </si>
+  <si>
+    <t>해탈 40단계</t>
   </si>
 </sst>
 </file>
@@ -589,11 +604,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -671,7 +686,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f t="shared" ref="B4:B36" si="0">B3</f>
+        <f t="shared" ref="B4:B41" si="0">B3</f>
         <v>1-1</v>
       </c>
       <c r="C4">
@@ -1359,9 +1374,114 @@
         <v>43</v>
       </c>
     </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1</v>
+      </c>
+      <c r="C37">
+        <v>122</v>
+      </c>
+      <c r="D37">
+        <v>36</v>
+      </c>
+      <c r="E37">
+        <v>3600</v>
+      </c>
+      <c r="F37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1</v>
+      </c>
+      <c r="C38">
+        <v>122</v>
+      </c>
+      <c r="D38">
+        <v>39</v>
+      </c>
+      <c r="E38">
+        <v>3700</v>
+      </c>
+      <c r="F38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1</v>
+      </c>
+      <c r="C39">
+        <v>122</v>
+      </c>
+      <c r="D39">
+        <v>43</v>
+      </c>
+      <c r="E39">
+        <v>3800</v>
+      </c>
+      <c r="F39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1</v>
+      </c>
+      <c r="C40">
+        <v>122</v>
+      </c>
+      <c r="D40">
+        <v>47</v>
+      </c>
+      <c r="E40">
+        <v>3900</v>
+      </c>
+      <c r="F40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1</v>
+      </c>
+      <c r="C41">
+        <v>122</v>
+      </c>
+      <c r="D41">
+        <v>51</v>
+      </c>
+      <c r="E41">
+        <v>4000</v>
+      </c>
+      <c r="F41" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:F36">
+  <conditionalFormatting sqref="A2:F41">
     <cfRule type="expression" dxfId="1" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
